--- a/LakeHodges/Storm Pacings and Settings/Rating Curve and Pacings Development/Cross Sections - Lake Hodges/SDG Creek Cross Section Survey 1_20_2020.xlsx
+++ b/LakeHodges/Storm Pacings and Settings/Rating Curve and Pacings Development/Cross Sections - Lake Hodges/SDG Creek Cross Section Survey 1_20_2020.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.messina\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.messina\Documents\GitHub\Sutron_scripts\LakeHodges\Storm Pacings and Settings\Rating Curve and Pacings Development\Cross Sections - Lake Hodges\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79505FF9-3F9E-4370-8DB2-4732EB9F54E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8388"/>
+    <workbookView xWindow="-25320" yWindow="420" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="21">
   <si>
     <t>Downstream Transect</t>
   </si>
@@ -86,11 +96,14 @@
   <si>
     <t>NA</t>
   </si>
+  <si>
+    <t>Max water level</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -685,7 +698,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -885,6 +898,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C41-4E7E-A12D-9A8E43FBD703}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1067,6 +1085,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C41-4E7E-A12D-9A8E43FBD703}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1199,6 +1222,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0C41-4E7E-A12D-9A8E43FBD703}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1331,6 +1359,131 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0C41-4E7E-A12D-9A8E43FBD703}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max water level</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$29:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$29:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.8100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8100000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0C41-4E7E-A12D-9A8E43FBD703}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1457,7 +1610,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2084,20 +2236,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>17144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>177165</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2132,7 +2290,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="EsriDoNotEdit"/>
+        <xdr:cNvPr id="2" name="EsriDoNotEdit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2471,28 +2635,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" customWidth="1"/>
+    <col min="2" max="3" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="5.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36"/>
       <c r="B1" s="37" t="s">
         <v>0</v>
@@ -2511,7 +2675,7 @@
       <c r="L1" s="37"/>
       <c r="M1" s="38"/>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
@@ -2557,7 +2721,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>12</v>
       </c>
@@ -2611,7 +2775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>12</v>
       </c>
@@ -2665,7 +2829,7 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>12</v>
       </c>
@@ -2719,7 +2883,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>12</v>
       </c>
@@ -2773,7 +2937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>12</v>
       </c>
@@ -2831,7 +2995,7 @@
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>12</v>
       </c>
@@ -2889,7 +3053,7 @@
         <v>8.7100000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
@@ -2943,7 +3107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
@@ -3001,7 +3165,7 @@
         <v>-5.1899999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>9</v>
       </c>
@@ -3059,7 +3223,7 @@
         <v>-5.3600000000000012</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
@@ -3098,7 +3262,7 @@
       </c>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>9</v>
       </c>
@@ -3131,7 +3295,7 @@
       <c r="L13" s="23"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>5</v>
       </c>
@@ -3153,7 +3317,10 @@
         <f>C48</f>
         <v>-5.41</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10">
+        <f>F14+2</f>
+        <v>-3.41</v>
+      </c>
       <c r="H14" s="30" t="s">
         <v>5</v>
       </c>
@@ -3176,7 +3343,7 @@
         <v>-5.1899999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>6</v>
       </c>
@@ -3198,7 +3365,10 @@
         <f>D48</f>
         <v>-5.35</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10">
+        <f t="shared" ref="G15:G17" si="8">F15+2</f>
+        <v>-3.3499999999999996</v>
+      </c>
       <c r="H15" s="30" t="s">
         <v>6</v>
       </c>
@@ -3221,7 +3391,7 @@
         <v>-5.1899999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>7</v>
       </c>
@@ -3243,7 +3413,10 @@
         <f>E48</f>
         <v>-5.4500000000000011</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10">
+        <f t="shared" si="8"/>
+        <v>-3.4500000000000011</v>
+      </c>
       <c r="H16" s="30" t="s">
         <v>7</v>
       </c>
@@ -3266,7 +3439,7 @@
         <v>-5.2099999999999991</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>8</v>
       </c>
@@ -3288,7 +3461,10 @@
         <f>F48</f>
         <v>-5.3600000000000012</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10">
+        <f t="shared" si="8"/>
+        <v>-3.3600000000000012</v>
+      </c>
       <c r="H17" s="30" t="s">
         <v>8</v>
       </c>
@@ -3311,7 +3487,7 @@
         <v>-5.1899999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>9</v>
       </c>
@@ -3350,7 +3526,7 @@
       </c>
       <c r="M18" s="26"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>9</v>
       </c>
@@ -3389,7 +3565,7 @@
       </c>
       <c r="M19" s="26"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>9</v>
       </c>
@@ -3428,7 +3604,7 @@
       </c>
       <c r="M20" s="26"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>9</v>
       </c>
@@ -3467,7 +3643,7 @@
       </c>
       <c r="M21" s="26"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>9</v>
       </c>
@@ -3506,7 +3682,7 @@
       </c>
       <c r="M22" s="26"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>12</v>
       </c>
@@ -3545,7 +3721,7 @@
       </c>
       <c r="M23" s="26"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>12</v>
       </c>
@@ -3584,7 +3760,7 @@
       </c>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>12</v>
       </c>
@@ -3623,7 +3799,7 @@
       </c>
       <c r="M25" s="26"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>12</v>
       </c>
@@ -3662,7 +3838,7 @@
       </c>
       <c r="M26" s="26"/>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>12</v>
       </c>
@@ -3701,8 +3877,49 @@
       </c>
       <c r="M27" s="28"/>
     </row>
-    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f>$M$14 + 6</f>
+        <v>0.8100000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>272</v>
+      </c>
+      <c r="L30">
+        <f>$M$14 + 6</f>
+        <v>0.8100000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f>$M$14 + 4.25</f>
+        <v>-0.9399999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>272</v>
+      </c>
+      <c r="L32">
+        <f>$M$14 + 4.25</f>
+        <v>-0.9399999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>13</v>
       </c>
@@ -3711,7 +3928,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="17" t="s">
         <v>16</v>
       </c>
@@ -3728,7 +3945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>14</v>
       </c>
@@ -3745,7 +3962,7 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>15</v>
       </c>
@@ -3762,7 +3979,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="17" t="s">
         <v>17</v>
       </c>
@@ -3779,7 +3996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>14</v>
       </c>
@@ -3788,19 +4005,19 @@
         <v>8.5399999999999991</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" ref="D44:F45" si="8">D41+2</f>
+        <f t="shared" ref="D44:F45" si="9">D41+2</f>
         <v>8.5399999999999991</v>
       </c>
       <c r="E44" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.5599999999999987</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
         <v>15</v>
       </c>
@@ -3809,19 +4026,19 @@
         <v>8.76</v>
       </c>
       <c r="D45" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="E45" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.7100000000000009</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="17" t="s">
         <v>18</v>
       </c>
@@ -3838,7 +4055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
@@ -3847,19 +4064,19 @@
         <v>-5.1899999999999995</v>
       </c>
       <c r="D47" s="14">
-        <f t="shared" ref="D47:F48" si="9">-D44+$C$3</f>
+        <f t="shared" ref="D47:F48" si="10">-D44+$C$3</f>
         <v>-5.1899999999999995</v>
       </c>
       <c r="E47" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-5.2099999999999991</v>
       </c>
       <c r="F47" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-5.1899999999999995</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
         <v>15</v>
       </c>
@@ -3868,15 +4085,15 @@
         <v>-5.41</v>
       </c>
       <c r="D48" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-5.35</v>
       </c>
       <c r="E48" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-5.4500000000000011</v>
       </c>
       <c r="F48" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-5.3600000000000012</v>
       </c>
     </row>
@@ -3888,12 +4105,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
